--- a/fast_moves.xlsx
+++ b/fast_moves.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14580"/>
+    <workbookView xWindow="12440" yWindow="0" windowWidth="25600" windowHeight="14760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="152">
   <si>
     <t>bug</t>
   </si>
@@ -295,6 +295,258 @@
   </si>
   <si>
     <t>present</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>chName</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>咬住</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙息</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙尾</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>充电光线</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>火花</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>啄</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>翅膀攻击</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气斩</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰砾</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼物</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>跃起</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>水枪</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉醒力量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰息</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>落石</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>连斩</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫咬</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫之抵抗</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>死缠烂打</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>出奇一击</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>突袭</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>大声咆哮</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>电光</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>电击</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏特替换</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>空手劈</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>踢倒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎岩</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍奉还</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰旋涡</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰牙</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌舔</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗影爪</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊吓</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>祸不单行</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞叶快刀</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤鞭</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>种子机关枪</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>变身</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞击</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>神通力</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>念力</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神利刃</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>意念头锤</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹拳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡沫</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>攀瀑</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢翼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁尾</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属爪</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>泥巴射击</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>掷泥</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>细雪</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍击</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>电光一闪</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>居合斩</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈欠</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛撞</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒击</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒针</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>溶解液</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -423,7 +675,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -445,6 +697,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -721,7 +974,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -731,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -740,7 +993,7 @@
     <col min="1" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" thickBot="1">
+    <row r="1" spans="1:8" ht="13" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -762,8 +1015,11 @@
       <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="13" thickBot="1">
+      <c r="H1" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
@@ -785,8 +1041,11 @@
       <c r="G2" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="13" thickBot="1">
+      <c r="H2" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="13" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
@@ -808,8 +1067,11 @@
       <c r="G3" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="13" thickBot="1">
+      <c r="H3" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="13" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
@@ -831,8 +1093,11 @@
       <c r="G4" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="25" thickBot="1">
+      <c r="H4" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="25" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
@@ -854,8 +1119,11 @@
       <c r="G5" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="13" thickBot="1">
+      <c r="H5" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="13" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
@@ -877,8 +1145,11 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="25" thickBot="1">
+      <c r="H6" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="25" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -900,8 +1171,11 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="25" thickBot="1">
+      <c r="H7" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="25" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
@@ -923,8 +1197,11 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="13" thickBot="1">
+      <c r="H8" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="13" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
@@ -946,8 +1223,11 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="25" thickBot="1">
+      <c r="H9" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="25" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -969,8 +1249,11 @@
       <c r="G10" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="25" thickBot="1">
+      <c r="H10" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="25" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
@@ -992,8 +1275,11 @@
       <c r="G11" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="13" thickBot="1">
+      <c r="H11" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="13" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
@@ -1015,8 +1301,11 @@
       <c r="G12" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="25" thickBot="1">
+      <c r="H12" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="25" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
@@ -1038,8 +1327,11 @@
       <c r="G13" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="25" thickBot="1">
+      <c r="H13" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="25" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -1061,8 +1353,11 @@
       <c r="G14" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="13" thickBot="1">
+      <c r="H14" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="13" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
@@ -1084,8 +1379,11 @@
       <c r="G15" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="25" thickBot="1">
+      <c r="H15" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="25" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>38</v>
       </c>
@@ -1107,8 +1405,11 @@
       <c r="G16" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="13" thickBot="1">
+      <c r="H16" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="13" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
@@ -1130,8 +1431,11 @@
       <c r="G17" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="25" thickBot="1">
+      <c r="H17" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="25" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>40</v>
       </c>
@@ -1153,8 +1457,11 @@
       <c r="G18" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="13" thickBot="1">
+      <c r="H18" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="13" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>41</v>
       </c>
@@ -1176,8 +1483,11 @@
       <c r="G19" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="13" thickBot="1">
+      <c r="H19" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="13" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>42</v>
       </c>
@@ -1199,8 +1509,11 @@
       <c r="G20" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="13" thickBot="1">
+      <c r="H20" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="13" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>43</v>
       </c>
@@ -1222,8 +1535,11 @@
       <c r="G21" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="13" thickBot="1">
+      <c r="H21" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="13" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>44</v>
       </c>
@@ -1245,8 +1561,11 @@
       <c r="G22" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="13" thickBot="1">
+      <c r="H22" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="13" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>45</v>
       </c>
@@ -1268,8 +1587,11 @@
       <c r="G23" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="25" thickBot="1">
+      <c r="H23" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="25" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>46</v>
       </c>
@@ -1291,8 +1613,11 @@
       <c r="G24" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="13" thickBot="1">
+      <c r="H24" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="13" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>47</v>
       </c>
@@ -1314,8 +1639,11 @@
       <c r="G25" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="13" thickBot="1">
+      <c r="H25" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="13" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>48</v>
       </c>
@@ -1337,8 +1665,11 @@
       <c r="G26" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="25" thickBot="1">
+      <c r="H26" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="25" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>49</v>
       </c>
@@ -1360,8 +1691,11 @@
       <c r="G27" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="13" thickBot="1">
+      <c r="H27" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="13" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>50</v>
       </c>
@@ -1383,8 +1717,11 @@
       <c r="G28" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="13" thickBot="1">
+      <c r="H28" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="13" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>51</v>
       </c>
@@ -1406,8 +1743,11 @@
       <c r="G29" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="13" thickBot="1">
+      <c r="H29" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="13" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>52</v>
       </c>
@@ -1429,8 +1769,11 @@
       <c r="G30" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="13" thickBot="1">
+      <c r="H30" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="13" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>53</v>
       </c>
@@ -1452,8 +1795,11 @@
       <c r="G31" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="25" thickBot="1">
+      <c r="H31" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="25" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>54</v>
       </c>
@@ -1475,8 +1821,11 @@
       <c r="G32" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="13" thickBot="1">
+      <c r="H32" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="13" thickBot="1">
       <c r="A33" s="5" t="s">
         <v>55</v>
       </c>
@@ -1498,8 +1847,11 @@
       <c r="G33" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="13" thickBot="1">
+      <c r="H33" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="13" thickBot="1">
       <c r="A34" s="5" t="s">
         <v>56</v>
       </c>
@@ -1521,8 +1873,11 @@
       <c r="G34" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="25" thickBot="1">
+      <c r="H34" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="25" thickBot="1">
       <c r="A35" s="5" t="s">
         <v>57</v>
       </c>
@@ -1544,8 +1899,11 @@
       <c r="G35" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="13" thickBot="1">
+      <c r="H35" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="13" thickBot="1">
       <c r="A36" s="5" t="s">
         <v>58</v>
       </c>
@@ -1567,8 +1925,11 @@
       <c r="G36" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="25" thickBot="1">
+      <c r="H36" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="25" thickBot="1">
       <c r="A37" s="5" t="s">
         <v>59</v>
       </c>
@@ -1590,8 +1951,11 @@
       <c r="G37" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="13" thickBot="1">
+      <c r="H37" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="13" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>60</v>
       </c>
@@ -1613,8 +1977,11 @@
       <c r="G38" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="13" thickBot="1">
+      <c r="H38" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="13" thickBot="1">
       <c r="A39" s="5" t="s">
         <v>61</v>
       </c>
@@ -1636,8 +2003,11 @@
       <c r="G39" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="25" thickBot="1">
+      <c r="H39" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="25" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>62</v>
       </c>
@@ -1659,8 +2029,11 @@
       <c r="G40" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="13" thickBot="1">
+      <c r="H40" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="13" thickBot="1">
       <c r="A41" s="5" t="s">
         <v>63</v>
       </c>
@@ -1682,8 +2055,11 @@
       <c r="G41" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="13" thickBot="1">
+      <c r="H41" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="13" thickBot="1">
       <c r="A42" s="5" t="s">
         <v>64</v>
       </c>
@@ -1705,8 +2081,11 @@
       <c r="G42" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="13" thickBot="1">
+      <c r="H42" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="13" thickBot="1">
       <c r="A43" s="5" t="s">
         <v>65</v>
       </c>
@@ -1728,8 +2107,11 @@
       <c r="G43" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="25" thickBot="1">
+      <c r="H43" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="25" thickBot="1">
       <c r="A44" s="5" t="s">
         <v>66</v>
       </c>
@@ -1751,8 +2133,11 @@
       <c r="G44" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="13" thickBot="1">
+      <c r="H44" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="13" thickBot="1">
       <c r="A45" s="5" t="s">
         <v>67</v>
       </c>
@@ -1774,8 +2159,11 @@
       <c r="G45" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="25" thickBot="1">
+      <c r="H45" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="25" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>68</v>
       </c>
@@ -1797,8 +2185,11 @@
       <c r="G46" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="13" thickBot="1">
+      <c r="H46" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="13" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>69</v>
       </c>
@@ -1820,8 +2211,11 @@
       <c r="G47" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="13" thickBot="1">
+      <c r="H47" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="13" thickBot="1">
       <c r="A48" s="5" t="s">
         <v>70</v>
       </c>
@@ -1842,6 +2236,9 @@
       </c>
       <c r="G48" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="25" thickBot="1">
@@ -1866,6 +2263,9 @@
       <c r="G49" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="H49" s="7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="50" spans="1:14" ht="25" thickBot="1">
       <c r="A50" s="5" t="s">
@@ -1889,6 +2289,9 @@
       <c r="G50" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="H50" s="7" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="51" spans="1:14" ht="25" thickBot="1">
       <c r="A51" s="5" t="s">
@@ -1912,6 +2315,9 @@
       <c r="G51" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="H51" s="7" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="52" spans="1:14" ht="25" thickBot="1">
       <c r="A52" s="5" t="s">
@@ -1935,6 +2341,9 @@
       <c r="G52" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="H52" s="7" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="53" spans="1:14" ht="25" thickBot="1">
       <c r="A53" s="5" t="s">
@@ -1958,6 +2367,9 @@
       <c r="G53" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="H53" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="25" thickBot="1">
       <c r="A54" s="5" t="s">
@@ -1981,6 +2393,9 @@
       <c r="G54" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="H54" s="7" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="13" thickBot="1">
       <c r="A55" s="5" t="s">
@@ -2004,6 +2419,9 @@
       <c r="G55" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="H55" s="7" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="56" spans="1:14" ht="13" thickBot="1">
       <c r="A56" s="5" t="s">
@@ -2027,6 +2445,9 @@
       <c r="G56" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="H56" s="7" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="57" spans="1:14" ht="13" thickBot="1">
       <c r="A57" s="5" t="s">
@@ -2050,6 +2471,9 @@
       <c r="G57" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="H57" s="7" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="58" spans="1:14" ht="13" thickBot="1">
       <c r="A58" s="5" t="s">
@@ -2073,6 +2497,9 @@
       <c r="G58" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="H58" s="7" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="59" spans="1:14" ht="13" thickBot="1">
       <c r="A59" s="5" t="s">
@@ -2096,6 +2523,9 @@
       <c r="G59" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="H59" s="7" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="7" t="s">
@@ -2119,7 +2549,9 @@
       <c r="G60" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H60" s="7"/>
+      <c r="H60" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
@@ -2149,6 +2581,9 @@
       <c r="G61" s="7" t="s">
         <v>85</v>
       </c>
+      <c r="H61" s="9" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="7" t="s">
@@ -2172,6 +2607,9 @@
       <c r="G62" s="7" t="s">
         <v>83</v>
       </c>
+      <c r="H62" s="9" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="7" t="s">
@@ -2194,6 +2632,9 @@
       </c>
       <c r="G63" s="7" t="s">
         <v>83</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/fast_moves.xlsx
+++ b/fast_moves.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12440" yWindow="0" windowWidth="25600" windowHeight="14760"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$1</definedName>
+  </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -675,7 +678,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -698,6 +701,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -974,7 +985,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -984,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2138,506 +2149,516 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="13" thickBot="1">
-      <c r="A45" s="5" t="s">
-        <v>67</v>
+      <c r="A45" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="B45" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C45" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D45" s="6">
-        <v>11.25</v>
+        <v>6.67</v>
       </c>
       <c r="E45" s="6">
-        <v>10</v>
+        <v>8.33</v>
       </c>
       <c r="F45" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>151</v>
+        <v>1.2</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="25" thickBot="1">
-      <c r="A46" s="5" t="s">
-        <v>68</v>
+      <c r="A46" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="B46" s="6">
+        <v>0</v>
+      </c>
+      <c r="C46" s="6">
+        <v>15</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0</v>
+      </c>
+      <c r="E46" s="6">
+        <v>8.82</v>
+      </c>
+      <c r="F46" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="13" thickBot="1">
+      <c r="A47" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="6">
         <v>5</v>
       </c>
-      <c r="C46" s="6">
-        <v>7</v>
-      </c>
-      <c r="D46" s="6">
-        <v>8.33</v>
-      </c>
-      <c r="E46" s="6">
-        <v>11.67</v>
-      </c>
-      <c r="F46" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="13" thickBot="1">
-      <c r="A47" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B47" s="6">
-        <v>10</v>
-      </c>
       <c r="C47" s="6">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D47" s="6">
-        <v>12.5</v>
+        <v>3.85</v>
       </c>
       <c r="E47" s="6">
-        <v>8.75</v>
+        <v>15.38</v>
       </c>
       <c r="F47" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>13</v>
+        <v>1.3</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="13" thickBot="1">
       <c r="A48" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B48" s="6">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C48" s="6">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D48" s="6">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="E48" s="6">
-        <v>9.3800000000000008</v>
+        <v>10</v>
       </c>
       <c r="F48" s="6">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="25" thickBot="1">
       <c r="A49" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B49" s="6">
         <v>5</v>
       </c>
       <c r="C49" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49" s="6">
         <v>8.33</v>
       </c>
       <c r="E49" s="6">
-        <v>13.33</v>
+        <v>11.67</v>
       </c>
       <c r="F49" s="6">
         <v>0.6</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="25" thickBot="1">
       <c r="A50" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B50" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C50" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D50" s="6">
-        <v>10.91</v>
+        <v>12.5</v>
       </c>
       <c r="E50" s="6">
-        <v>9.09</v>
+        <v>8.75</v>
       </c>
       <c r="F50" s="6">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="25" thickBot="1">
       <c r="A51" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B51" s="6">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C51" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D51" s="6">
-        <v>10.91</v>
+        <v>12.5</v>
       </c>
       <c r="E51" s="6">
-        <v>10.91</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="F51" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="25" thickBot="1">
       <c r="A52" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B52" s="6">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C52" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D52" s="6">
+        <v>8.33</v>
+      </c>
+      <c r="E52" s="6">
         <v>13.33</v>
       </c>
-      <c r="E52" s="6">
-        <v>7.78</v>
-      </c>
       <c r="F52" s="6">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="25" thickBot="1">
       <c r="A53" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B53" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C53" s="6">
         <v>10</v>
       </c>
       <c r="D53" s="6">
-        <v>10</v>
+        <v>10.91</v>
       </c>
       <c r="E53" s="6">
-        <v>11.11</v>
+        <v>9.09</v>
       </c>
       <c r="F53" s="6">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="25" thickBot="1">
       <c r="A54" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B54" s="6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C54" s="6">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D54" s="6">
-        <v>11.43</v>
+        <v>10.91</v>
       </c>
       <c r="E54" s="6">
-        <v>10</v>
+        <v>10.91</v>
       </c>
       <c r="F54" s="6">
-        <v>0.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="13" thickBot="1">
       <c r="A55" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B55" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C55" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D55" s="6">
-        <v>13.75</v>
+        <v>13.33</v>
       </c>
       <c r="E55" s="6">
-        <v>7.5</v>
+        <v>7.78</v>
       </c>
       <c r="F55" s="6">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="13" thickBot="1">
       <c r="A56" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B56" s="6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C56" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D56" s="6">
-        <v>13.64</v>
+        <v>10</v>
       </c>
       <c r="E56" s="6">
-        <v>6.36</v>
+        <v>11.11</v>
       </c>
       <c r="F56" s="6">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="13" thickBot="1">
       <c r="A57" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B57" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C57" s="6">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D57" s="6">
-        <v>10</v>
+        <v>11.43</v>
       </c>
       <c r="E57" s="6">
-        <v>11.67</v>
+        <v>10</v>
       </c>
       <c r="F57" s="6">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="13" thickBot="1">
       <c r="A58" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B58" s="6">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C58" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D58" s="6">
-        <v>10</v>
+        <v>13.75</v>
       </c>
       <c r="E58" s="6">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="F58" s="6">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="13" thickBot="1">
       <c r="A59" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B59" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C59" s="6">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D59" s="6">
-        <v>0</v>
+        <v>13.64</v>
       </c>
       <c r="E59" s="6">
-        <v>11.6</v>
+        <v>6.36</v>
       </c>
       <c r="F59" s="6">
-        <v>1.73</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="7" t="s">
-        <v>86</v>
+      <c r="A60" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="B60" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C60" s="8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D60" s="8">
-        <v>13.33</v>
+        <v>10</v>
       </c>
       <c r="E60" s="8">
-        <v>6.67</v>
+        <v>11.67</v>
       </c>
       <c r="F60" s="8">
         <v>1.2</v>
       </c>
-      <c r="G60" s="7" t="s">
-        <v>87</v>
+      <c r="G60" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="7"/>
+        <v>135</v>
+      </c>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="7" t="s">
-        <v>84</v>
+      <c r="A61" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="B61" s="8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C61" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D61" s="8">
-        <v>6.67</v>
+        <v>10</v>
       </c>
       <c r="E61" s="8">
-        <v>8.33</v>
+        <v>10</v>
       </c>
       <c r="F61" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>148</v>
+        <v>0.5</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="7" t="s">
-        <v>82</v>
+      <c r="A62" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="B62" s="8">
         <v>0</v>
       </c>
       <c r="C62" s="8">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D62" s="8">
         <v>0</v>
       </c>
       <c r="E62" s="8">
-        <v>8.82</v>
+        <v>11.6</v>
       </c>
       <c r="F62" s="8">
-        <v>1.7</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>147</v>
+        <v>1.73</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B63" s="8">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C63" s="8">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D63" s="8">
-        <v>3.85</v>
+        <v>13.33</v>
       </c>
       <c r="E63" s="8">
-        <v>15.38</v>
+        <v>6.67</v>
       </c>
       <c r="F63" s="8">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>99</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N1">
+    <sortState ref="A2:N63">
+      <sortCondition ref="G1:G63"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://pokemongo.gamepress.gg/pokemon-move/bug-bite"/>
@@ -2683,21 +2704,21 @@
     <hyperlink ref="A42" r:id="rId41" display="https://pokemongo.gamepress.gg/pokemon-move/cut"/>
     <hyperlink ref="A43" r:id="rId42" display="https://pokemongo.gamepress.gg/pokemon-move/transform"/>
     <hyperlink ref="A44" r:id="rId43" display="https://pokemongo.gamepress.gg/pokemon-move/hidden-power"/>
-    <hyperlink ref="A45" r:id="rId44" display="https://pokemongo.gamepress.gg/pokemon-move/acid"/>
-    <hyperlink ref="A46" r:id="rId45" display="https://pokemongo.gamepress.gg/pokemon-move/poison-sting"/>
-    <hyperlink ref="A47" r:id="rId46" display="https://pokemongo.gamepress.gg/pokemon-move/poison-jab"/>
-    <hyperlink ref="A48" r:id="rId47" display="https://pokemongo.gamepress.gg/pokemon-move/confusion"/>
-    <hyperlink ref="A49" r:id="rId48" display="https://pokemongo.gamepress.gg/pokemon-move/psycho-cut"/>
-    <hyperlink ref="A50" r:id="rId49" display="https://pokemongo.gamepress.gg/pokemon-move/zen-headbutt"/>
-    <hyperlink ref="A51" r:id="rId50" display="https://pokemongo.gamepress.gg/pokemon-move/extrasensory"/>
-    <hyperlink ref="A52" r:id="rId51" display="https://pokemongo.gamepress.gg/pokemon-move/rock-throw"/>
-    <hyperlink ref="A53" r:id="rId52" display="https://pokemongo.gamepress.gg/pokemon-move/bullet-punch"/>
-    <hyperlink ref="A54" r:id="rId53" display="https://pokemongo.gamepress.gg/pokemon-move/metal-claw"/>
-    <hyperlink ref="A55" r:id="rId54" display="https://pokemongo.gamepress.gg/pokemon-move/steel-wing"/>
-    <hyperlink ref="A56" r:id="rId55" display="https://pokemongo.gamepress.gg/pokemon-move/iron-tail"/>
-    <hyperlink ref="A57" r:id="rId56" display="https://pokemongo.gamepress.gg/pokemon-move/bubble"/>
-    <hyperlink ref="A58" r:id="rId57" display="https://pokemongo.gamepress.gg/pokemon-move/water-gun"/>
-    <hyperlink ref="A59" r:id="rId58" display="https://pokemongo.gamepress.gg/pokemon-move/splash"/>
+    <hyperlink ref="A48" r:id="rId44" display="https://pokemongo.gamepress.gg/pokemon-move/acid"/>
+    <hyperlink ref="A49" r:id="rId45" display="https://pokemongo.gamepress.gg/pokemon-move/poison-sting"/>
+    <hyperlink ref="A50" r:id="rId46" display="https://pokemongo.gamepress.gg/pokemon-move/poison-jab"/>
+    <hyperlink ref="A51" r:id="rId47" display="https://pokemongo.gamepress.gg/pokemon-move/confusion"/>
+    <hyperlink ref="A52" r:id="rId48" display="https://pokemongo.gamepress.gg/pokemon-move/psycho-cut"/>
+    <hyperlink ref="A53" r:id="rId49" display="https://pokemongo.gamepress.gg/pokemon-move/zen-headbutt"/>
+    <hyperlink ref="A54" r:id="rId50" display="https://pokemongo.gamepress.gg/pokemon-move/extrasensory"/>
+    <hyperlink ref="A55" r:id="rId51" display="https://pokemongo.gamepress.gg/pokemon-move/rock-throw"/>
+    <hyperlink ref="A56" r:id="rId52" display="https://pokemongo.gamepress.gg/pokemon-move/bullet-punch"/>
+    <hyperlink ref="A57" r:id="rId53" display="https://pokemongo.gamepress.gg/pokemon-move/metal-claw"/>
+    <hyperlink ref="A58" r:id="rId54" display="https://pokemongo.gamepress.gg/pokemon-move/steel-wing"/>
+    <hyperlink ref="A59" r:id="rId55" display="https://pokemongo.gamepress.gg/pokemon-move/iron-tail"/>
+    <hyperlink ref="A60" r:id="rId56" display="https://pokemongo.gamepress.gg/pokemon-move/bubble"/>
+    <hyperlink ref="A61" r:id="rId57" display="https://pokemongo.gamepress.gg/pokemon-move/water-gun"/>
+    <hyperlink ref="A62" r:id="rId58" display="https://pokemongo.gamepress.gg/pokemon-move/splash"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/fast_moves.xlsx
+++ b/fast_moves.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14320"/>
+    <workbookView xWindow="7060" yWindow="900" windowWidth="25360" windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="155">
   <si>
     <t>bug</t>
   </si>
@@ -550,6 +550,18 @@
   </si>
   <si>
     <t>溶解液</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>smack down</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>rock</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>击落</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -678,7 +690,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -709,6 +721,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -985,7 +998,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -993,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2174,7 +2187,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="25" thickBot="1">
+    <row r="46" spans="1:8" ht="13" thickBot="1">
       <c r="A46" s="10" t="s">
         <v>82</v>
       </c>
@@ -2278,7 +2291,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="25" thickBot="1">
+    <row r="50" spans="1:14" ht="13" thickBot="1">
       <c r="A50" s="5" t="s">
         <v>69</v>
       </c>
@@ -2304,7 +2317,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="25" thickBot="1">
+    <row r="51" spans="1:14" ht="13" thickBot="1">
       <c r="A51" s="5" t="s">
         <v>70</v>
       </c>
@@ -2408,7 +2421,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="13" thickBot="1">
+    <row r="55" spans="1:14" ht="25" thickBot="1">
       <c r="A55" s="5" t="s">
         <v>74</v>
       </c>
@@ -2434,134 +2447,134 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="13" thickBot="1">
-      <c r="A56" s="5" t="s">
+    <row r="56" spans="1:14" ht="25" thickBot="1">
+      <c r="A56" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" s="6">
+        <v>16</v>
+      </c>
+      <c r="C56" s="6">
+        <v>8</v>
+      </c>
+      <c r="D56" s="6">
+        <v>13.33</v>
+      </c>
+      <c r="E56" s="6">
+        <v>6.67</v>
+      </c>
+      <c r="F56" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="25" thickBot="1">
+      <c r="A57" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B57" s="6">
         <v>9</v>
       </c>
-      <c r="C56" s="6">
-        <v>10</v>
-      </c>
-      <c r="D56" s="6">
-        <v>10</v>
-      </c>
-      <c r="E56" s="6">
+      <c r="C57" s="6">
+        <v>10</v>
+      </c>
+      <c r="D57" s="6">
+        <v>10</v>
+      </c>
+      <c r="E57" s="6">
         <v>11.11</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F57" s="6">
         <v>0.9</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="13" thickBot="1">
-      <c r="A57" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B57" s="6">
-        <v>8</v>
-      </c>
-      <c r="C57" s="6">
-        <v>7</v>
-      </c>
-      <c r="D57" s="6">
-        <v>11.43</v>
-      </c>
-      <c r="E57" s="6">
-        <v>10</v>
-      </c>
-      <c r="F57" s="6">
-        <v>0.7</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="13" thickBot="1">
       <c r="A58" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B58" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C58" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D58" s="6">
-        <v>13.75</v>
+        <v>11.43</v>
       </c>
       <c r="E58" s="6">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="F58" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="13" thickBot="1">
       <c r="A59" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B59" s="6">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C59" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D59" s="6">
-        <v>13.64</v>
+        <v>13.75</v>
       </c>
       <c r="E59" s="6">
-        <v>6.36</v>
+        <v>7.5</v>
       </c>
       <c r="F59" s="6">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B60" s="8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C60" s="8">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D60" s="8">
-        <v>10</v>
+        <v>13.64</v>
       </c>
       <c r="E60" s="8">
-        <v>11.67</v>
+        <v>6.36</v>
       </c>
       <c r="F60" s="8">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
@@ -2571,92 +2584,123 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B61" s="8">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C61" s="8">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D61" s="8">
         <v>10</v>
       </c>
       <c r="E61" s="8">
-        <v>10</v>
+        <v>11.67</v>
       </c>
       <c r="F61" s="8">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>101</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B62" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C62" s="8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D62" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E62" s="8">
-        <v>11.6</v>
+        <v>10</v>
       </c>
       <c r="F62" s="8">
-        <v>1.73</v>
+        <v>0.5</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H62" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="8">
+        <v>0</v>
+      </c>
+      <c r="C63" s="8">
+        <v>20</v>
+      </c>
+      <c r="D63" s="8">
+        <v>0</v>
+      </c>
+      <c r="E63" s="8">
+        <v>11.6</v>
+      </c>
+      <c r="F63" s="8">
+        <v>1.73</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="7" t="s">
+    <row r="64" spans="1:14">
+      <c r="A64" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B64" s="8">
         <v>16</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C64" s="8">
         <v>8</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D64" s="8">
         <v>13.33</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E64" s="8">
         <v>6.67</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F64" s="8">
         <v>1.2</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="G64" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="H64" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="7"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N1">
-    <sortState ref="A2:N63">
-      <sortCondition ref="G1:G63"/>
+    <sortState ref="A2:N64">
+      <sortCondition ref="G1:G64"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2712,13 +2756,13 @@
     <hyperlink ref="A53" r:id="rId49" display="https://pokemongo.gamepress.gg/pokemon-move/zen-headbutt"/>
     <hyperlink ref="A54" r:id="rId50" display="https://pokemongo.gamepress.gg/pokemon-move/extrasensory"/>
     <hyperlink ref="A55" r:id="rId51" display="https://pokemongo.gamepress.gg/pokemon-move/rock-throw"/>
-    <hyperlink ref="A56" r:id="rId52" display="https://pokemongo.gamepress.gg/pokemon-move/bullet-punch"/>
-    <hyperlink ref="A57" r:id="rId53" display="https://pokemongo.gamepress.gg/pokemon-move/metal-claw"/>
-    <hyperlink ref="A58" r:id="rId54" display="https://pokemongo.gamepress.gg/pokemon-move/steel-wing"/>
-    <hyperlink ref="A59" r:id="rId55" display="https://pokemongo.gamepress.gg/pokemon-move/iron-tail"/>
-    <hyperlink ref="A60" r:id="rId56" display="https://pokemongo.gamepress.gg/pokemon-move/bubble"/>
-    <hyperlink ref="A61" r:id="rId57" display="https://pokemongo.gamepress.gg/pokemon-move/water-gun"/>
-    <hyperlink ref="A62" r:id="rId58" display="https://pokemongo.gamepress.gg/pokemon-move/splash"/>
+    <hyperlink ref="A57" r:id="rId52" display="https://pokemongo.gamepress.gg/pokemon-move/bullet-punch"/>
+    <hyperlink ref="A58" r:id="rId53" display="https://pokemongo.gamepress.gg/pokemon-move/metal-claw"/>
+    <hyperlink ref="A59" r:id="rId54" display="https://pokemongo.gamepress.gg/pokemon-move/steel-wing"/>
+    <hyperlink ref="A60" r:id="rId55" display="https://pokemongo.gamepress.gg/pokemon-move/iron-tail"/>
+    <hyperlink ref="A61" r:id="rId56" display="https://pokemongo.gamepress.gg/pokemon-move/bubble"/>
+    <hyperlink ref="A62" r:id="rId57" display="https://pokemongo.gamepress.gg/pokemon-move/water-gun"/>
+    <hyperlink ref="A63" r:id="rId58" display="https://pokemongo.gamepress.gg/pokemon-move/splash"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
